--- a/remaining_pinout_24_08_20.xlsx
+++ b/remaining_pinout_24_08_20.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$54</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>Pin/No</t>
   </si>
@@ -81,7 +81,7 @@
     <t>GPIO_GCLCK</t>
   </si>
   <si>
-    <t>IO_EXPANDER_INT'</t>
+    <t>LCD_BACKLIGHT_CTRL</t>
   </si>
   <si>
     <t>GPIO-14</t>
@@ -120,7 +120,7 @@
     <t>GPIO_GEN1</t>
   </si>
   <si>
-    <t>LCD_BACKLIGHT_CTRL</t>
+    <t>PWR_KEY_S</t>
   </si>
   <si>
     <t>GPIO-27</t>
@@ -129,43 +129,46 @@
     <t>GPIO_GEN2(out)</t>
   </si>
   <si>
+    <t>SYS_PWR</t>
+  </si>
+  <si>
+    <t>GPIO-22</t>
+  </si>
+  <si>
+    <t>GPIO_GEN3(out)</t>
+  </si>
+  <si>
     <t>ReX0</t>
   </si>
   <si>
-    <t>GPIO-22</t>
-  </si>
-  <si>
-    <t>GPIO_GEN3(out)</t>
+    <t>GPIO-23</t>
+  </si>
+  <si>
+    <t>GPIO_GEN4</t>
+  </si>
+  <si>
+    <t>ReX1</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>GPIO-24</t>
+  </si>
+  <si>
+    <t>GPIO_GEN5</t>
   </si>
   <si>
     <t>LCD_RS  LCD instruction control, Instruction/Data Register selection</t>
   </si>
   <si>
-    <t>GPIO-23</t>
-  </si>
-  <si>
-    <t>GPIO_GEN4</t>
-  </si>
-  <si>
-    <t>ReX1</t>
-  </si>
-  <si>
-    <t>3.3V</t>
-  </si>
-  <si>
-    <t>GPIO-24</t>
-  </si>
-  <si>
-    <t>GPIO_GEN5</t>
-  </si>
-  <si>
     <t>GPIO-10</t>
   </si>
   <si>
     <t>SPI_MOSI</t>
   </si>
   <si>
-    <t xml:space="preserve"> LCD_SI / TP_SI  SPI data input of LCD/Touch Panel</t>
+    <t>LCD_SI / TP_SI  SPI data input of LCD/Touch Panel</t>
   </si>
   <si>
     <t>GPIO-09</t>
@@ -210,7 +213,7 @@
     <t>SPI_CE1_N</t>
   </si>
   <si>
-    <t xml:space="preserve">TP_CS </t>
+    <t>TP_CS</t>
   </si>
   <si>
     <t>ID_SD</t>
@@ -222,6 +225,10 @@
     <t>ID_SC</t>
   </si>
   <si>
+    <t>Required long range  1/2 meter
+PIR sensor for IR LED bank. Only H/W control.</t>
+  </si>
+  <si>
     <t>GPIO-05</t>
   </si>
   <si>
@@ -237,54 +244,54 @@
     <t>GPIO(out)</t>
   </si>
   <si>
+    <t>LFB1</t>
+  </si>
+  <si>
+    <t>GPIO-12</t>
+  </si>
+  <si>
+    <t>RELAY_1</t>
+  </si>
+  <si>
+    <t>GPIO-13</t>
+  </si>
+  <si>
+    <t>RELAY_2</t>
+  </si>
+  <si>
+    <t>GPIO-19</t>
+  </si>
+  <si>
+    <t>WG1_D0</t>
+  </si>
+  <si>
+    <t>GPIO-16</t>
+  </si>
+  <si>
+    <t>gpio(in)</t>
+  </si>
+  <si>
+    <t>WG1_D1</t>
+  </si>
+  <si>
+    <t>GPIO-26</t>
+  </si>
+  <si>
+    <t>WG2_D0</t>
+  </si>
+  <si>
+    <t>GPIO-20</t>
+  </si>
+  <si>
+    <t>WG2_D1</t>
+  </si>
+  <si>
+    <t>GPIO-21</t>
+  </si>
+  <si>
     <t>Buzzer control</t>
   </si>
   <si>
-    <t>GPIO-12</t>
-  </si>
-  <si>
-    <t>PWR_KEY_S</t>
-  </si>
-  <si>
-    <t>GPIO-13</t>
-  </si>
-  <si>
-    <t>SYS_PWR</t>
-  </si>
-  <si>
-    <t>GPIO-19</t>
-  </si>
-  <si>
-    <t>WG1_D0</t>
-  </si>
-  <si>
-    <t>GPIO-16</t>
-  </si>
-  <si>
-    <t>gpio(in)</t>
-  </si>
-  <si>
-    <t>WG1_D1</t>
-  </si>
-  <si>
-    <t>GPIO-26</t>
-  </si>
-  <si>
-    <t>WG2_D0</t>
-  </si>
-  <si>
-    <t>GPIO-20</t>
-  </si>
-  <si>
-    <t>WG2_D1</t>
-  </si>
-  <si>
-    <t>GPIO-21</t>
-  </si>
-  <si>
-    <t>LFB1</t>
-  </si>
-  <si>
     <t>proximity sensor</t>
   </si>
   <si>
@@ -333,13 +340,7 @@
     <t>P01</t>
   </si>
   <si>
-    <t>RELAY_1</t>
-  </si>
-  <si>
     <t>P02</t>
-  </si>
-  <si>
-    <t>RELAY_2</t>
   </si>
   <si>
     <t>P03</t>
@@ -396,11 +397,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,9 +465,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,13 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -494,10 +502,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,6 +525,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -525,23 +535,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,18 +578,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,31 +601,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,187 +611,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,17 +835,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,6 +866,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,43 +909,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,152 +935,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1112,9 +1112,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1180,13 +1194,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>310697</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>181428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>307151</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>113391</xdr:rowOff>
@@ -1206,7 +1220,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2834640" y="8562975"/>
+          <a:off x="3215640" y="8562975"/>
           <a:ext cx="4644390" cy="1456055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1218,16 +1232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>275590</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381635</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581660</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1246,8 +1260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8029575" y="4143375"/>
-          <a:ext cx="3915410" cy="5149850"/>
+          <a:off x="9048115" y="4133850"/>
+          <a:ext cx="3477895" cy="5149850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1544,27 +1558,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:M46"/>
+  <dimension ref="C2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.7142857142857" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.1428571428571" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.2857142857143" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.2857142857143" style="5" customWidth="1"/>
-    <col min="7" max="7" width="18" style="5" customWidth="1"/>
-    <col min="8" max="8" width="18.2857142857143" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.1428571428571" style="5" customWidth="1"/>
-    <col min="10" max="13" width="9.14285714285714" style="5"/>
+    <col min="2" max="2" width="5.71428571428571" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.1428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1428571428571" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.2857142857143" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.2857142857143" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18.2857142857143" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.1428571428571" style="5" customWidth="1"/>
+    <col min="11" max="14" width="9.14285714285714" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
-      <c r="B2" s="6"/>
+    <row r="2" spans="3:11">
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -1573,41 +1587,41 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="7" t="s">
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="3:14">
+      <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
-      <c r="K3" s="10"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="9">
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="3:14">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="D4" s="9">
         <v>3.3</v>
       </c>
-      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1615,17 +1629,17 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="9">
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="3:14">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -1633,47 +1647,47 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="9">
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="9">
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="3:14">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1681,47 +1695,47 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="9">
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="3:14">
+      <c r="C8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="9">
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="3:14">
+      <c r="C9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1729,65 +1743,65 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="9">
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="3:14">
+      <c r="C10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="9">
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="3:14">
+      <c r="C11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="9">
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="3:14">
+      <c r="C12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -1795,109 +1809,109 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="9">
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="3:14">
+      <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="9">
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="3:14">
+      <c r="C14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="9">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="3:14">
+      <c r="C15" s="9">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="9">
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="3:14">
+      <c r="C16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="9">
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="9">
         <v>14</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -1905,63 +1919,63 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="9">
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="9">
         <v>15</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="9">
+      <c r="N18" s="10"/>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="9">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9"/>
+      <c r="G19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="9">
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="9">
         <v>17</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -1969,65 +1983,65 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="9">
+      <c r="N20" s="10"/>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="11">
         <v>18</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="9">
+      <c r="G21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="11">
         <v>19</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="9">
+      <c r="G22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="9">
         <v>20</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -2035,113 +2049,113 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="9">
+      <c r="N23" s="10"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="11">
         <v>21</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="9">
+      <c r="G24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="3:14">
+      <c r="C25" s="11">
         <v>22</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="9">
+      <c r="G25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="C26" s="11">
         <v>23</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="9">
+      <c r="G26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" s="11">
         <v>24</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="9">
+      <c r="G27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="C28" s="9">
         <v>25</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -2149,43 +2163,43 @@
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="9">
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="11">
         <v>26</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="9">
+      <c r="G29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="C30" s="9">
         <v>27</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -2193,313 +2207,467 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="9">
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="3:14">
+      <c r="C31" s="9">
         <v>28</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="14"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="9">
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="3:14">
+      <c r="C32" s="9">
         <v>29</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="9">
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="9">
         <v>30</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="9">
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="9">
         <v>31</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>70</v>
-      </c>
       <c r="D34" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="9">
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="9">
         <v>32</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="G35" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="9">
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="9">
         <v>33</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="D36" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+      <c r="G36" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="9">
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" s="9">
         <v>34</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="9">
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="9">
         <v>35</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>77</v>
-      </c>
       <c r="D38" s="9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
+      <c r="G38" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="9">
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" s="9">
         <v>36</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="D39" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
+      <c r="G39" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="9">
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" s="9">
         <v>37</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="G40" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="9">
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="C41" s="9">
         <v>38</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="D41" s="9" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
+      <c r="G41" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="9">
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="C42" s="9">
         <v>39</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="9">
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="9">
         <v>40</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>86</v>
-      </c>
       <c r="D43" s="9" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E43" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
+      <c r="G43" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="C46" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" spans="3:14">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="F22:M22"/>
-    <mergeCell ref="F24:M24"/>
-    <mergeCell ref="F26:M26"/>
-    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G18:N18"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="H31:I44"/>
   </mergeCells>
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="1" scale="63" orientation="landscape"/>
@@ -2514,7 +2682,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2524,46 +2692,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -2571,7 +2739,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2579,7 +2747,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2595,26 +2763,26 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:1">
